--- a/results/comparaison/GM/azimuth/mean_normalized.xlsx
+++ b/results/comparaison/GM/azimuth/mean_normalized.xlsx
@@ -983,412 +983,526 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C3">
+        <v>1.480607816644955</v>
+      </c>
+      <c r="D3">
+        <v>1.349568008681404</v>
+      </c>
+      <c r="E3">
         <v>1.176845266744801</v>
       </c>
-      <c r="C3">
+      <c r="H3">
+        <v>1.554496281859704</v>
+      </c>
+      <c r="I3">
+        <v>1.039415103862217</v>
+      </c>
+      <c r="J3">
         <v>0.7637764277232297</v>
       </c>
-      <c r="D3">
-        <v>1.193924602299447</v>
-      </c>
-      <c r="E3">
-        <v>1.818121362908876</v>
-      </c>
-      <c r="F3">
+      <c r="K3">
         <v>1.711278519093527</v>
       </c>
-      <c r="G3">
-        <v>1.211681725836874</v>
-      </c>
-      <c r="H3">
+      <c r="L3">
+        <v>2.541175404248741</v>
+      </c>
+      <c r="M3">
+        <v>1.676118442774588</v>
+      </c>
+      <c r="N3">
         <v>0.9403465832504539</v>
       </c>
-      <c r="I3">
+      <c r="O3">
         <v>1.045264491296667</v>
       </c>
-      <c r="L3">
-        <v>1.228048651344378</v>
-      </c>
-      <c r="N3">
-        <v>0.9790059101149643</v>
-      </c>
       <c r="P3">
-        <v>1.91564460906626</v>
-      </c>
-      <c r="R3">
-        <v>1.750966358852652</v>
-      </c>
-      <c r="S3">
-        <v>1.235419717856766</v>
+        <v>2.185248267590557</v>
+      </c>
+      <c r="Q3">
+        <v>0.9827354139582508</v>
       </c>
       <c r="T3">
-        <v>1.499370164562414</v>
+        <v>0.957586743227285</v>
+      </c>
+      <c r="U3">
+        <v>1.067975875286199</v>
       </c>
       <c r="V3">
-        <v>1.32674342164751</v>
-      </c>
-      <c r="X3">
-        <v>1.554496281859704</v>
+        <v>1.222021024988575</v>
+      </c>
+      <c r="W3">
+        <v>1.021463203477853</v>
       </c>
       <c r="Y3">
-        <v>1.56919620932923</v>
+        <v>1.508102177881175</v>
       </c>
       <c r="Z3">
-        <v>1.039415103862217</v>
-      </c>
-      <c r="AB3">
-        <v>1.401157139305789</v>
+        <v>1.508407892077998</v>
+      </c>
+      <c r="AA3">
+        <v>0.8676024409523857</v>
       </c>
       <c r="AC3">
-        <v>1.02142079992664</v>
+        <v>1.023688278239667</v>
       </c>
       <c r="AD3">
-        <v>1.272748286707641</v>
-      </c>
-      <c r="AE3">
-        <v>0.9398310800141028</v>
+        <v>1.025215631169594</v>
       </c>
       <c r="AF3">
-        <v>1.037365429750243</v>
+        <v>1.002244607618293</v>
       </c>
       <c r="AG3">
-        <v>1.043969225243143</v>
-      </c>
-      <c r="AH3">
-        <v>1.004885526146073</v>
+        <v>0.658895425866619</v>
       </c>
       <c r="AI3">
-        <v>1.540537835567334</v>
+        <v>1.499179500909601</v>
       </c>
       <c r="AJ3">
-        <v>0.9349123984984439</v>
+        <v>1.365773110823359</v>
+      </c>
+      <c r="AK3">
+        <v>0.9848857560593666</v>
       </c>
       <c r="AL3">
-        <v>1.436569936713457</v>
+        <v>1.040238837818764</v>
+      </c>
+      <c r="AM3">
+        <v>1.471846188633044</v>
       </c>
       <c r="AN3">
-        <v>0.9837661248274526</v>
+        <v>0.9227740050796893</v>
       </c>
       <c r="AO3">
-        <v>1.402893140583101</v>
+        <v>1.010677781073395</v>
       </c>
       <c r="AP3">
-        <v>1.412158183749798</v>
+        <v>1.166785169675097</v>
       </c>
       <c r="AQ3">
-        <v>1.123283693011343</v>
+        <v>1.543633338937401</v>
       </c>
       <c r="AR3">
-        <v>0.909488097897526</v>
+        <v>1.351878310336984</v>
       </c>
       <c r="AT3">
-        <v>0.6393439730526451</v>
+        <v>1.041192013387466</v>
+      </c>
+      <c r="AU3">
+        <v>2.569301845729551</v>
       </c>
       <c r="AV3">
-        <v>1.303747392443465</v>
+        <v>2.23596627563835</v>
       </c>
       <c r="AW3">
-        <v>0.9678148583414079</v>
+        <v>0.9744773880903697</v>
       </c>
       <c r="AX3">
-        <v>1.280497447248485</v>
+        <v>2.377853197392483</v>
       </c>
       <c r="AY3">
-        <v>1.61381079274659</v>
-      </c>
-      <c r="AZ3">
-        <v>0.9063181235164008</v>
+        <v>0.8127917760559076</v>
       </c>
       <c r="BA3">
-        <v>0.8683782570420688</v>
+        <v>0.4159748776369298</v>
       </c>
       <c r="BB3">
-        <v>1.122724681903214</v>
+        <v>1.899875857279948</v>
       </c>
       <c r="BC3">
-        <v>0.9397739484070459</v>
+        <v>0.8567323910675027</v>
       </c>
       <c r="BD3">
-        <v>1.000890534135212</v>
+        <v>1.603101936126973</v>
       </c>
       <c r="BE3">
-        <v>1.093265303622007</v>
+        <v>0.9285301836300424</v>
       </c>
       <c r="BF3">
-        <v>1.041513605160341</v>
-      </c>
-      <c r="BG3">
-        <v>1.240673863755988</v>
+        <v>1.655442189573422</v>
       </c>
       <c r="BH3">
-        <v>0.9714670957409482</v>
+        <v>0.9875368629550949</v>
       </c>
       <c r="BI3">
-        <v>1.659784743931781</v>
+        <v>0.8454310093966889</v>
       </c>
       <c r="BJ3">
-        <v>1.043295100804276</v>
+        <v>1.312148433521795</v>
+      </c>
+      <c r="BK3">
+        <v>1.225193397254629</v>
       </c>
       <c r="BL3">
-        <v>0.9182111967095847</v>
-      </c>
-      <c r="BM3">
-        <v>1.536309835852276</v>
+        <v>1.857752101779585</v>
+      </c>
+      <c r="BN3">
+        <v>1.118096242062979</v>
+      </c>
+      <c r="BO3">
+        <v>1.204739075351422</v>
+      </c>
+      <c r="BP3">
+        <v>1.0980782894904</v>
       </c>
       <c r="BQ3">
-        <v>1.738792119013736</v>
+        <v>0.7156874627897191</v>
       </c>
       <c r="BR3">
-        <v>2.150115302871064</v>
+        <v>0.8621207050363335</v>
       </c>
       <c r="BS3">
-        <v>3.454794832664244</v>
+        <v>2.462238596711683</v>
       </c>
       <c r="BT3">
-        <v>0.7251152261012596</v>
+        <v>1.045490541278443</v>
       </c>
       <c r="BU3">
-        <v>1.978890780156299</v>
+        <v>0.5943102272412993</v>
       </c>
       <c r="BV3">
-        <v>1.597471606441936</v>
+        <v>1.203869764167326</v>
       </c>
       <c r="BW3">
-        <v>1.630832448522905</v>
+        <v>0.993767613063451</v>
       </c>
       <c r="BX3">
-        <v>0.6561139824628268</v>
-      </c>
-      <c r="CA3">
-        <v>1.935456097192739</v>
+        <v>1.987606360004735</v>
+      </c>
+      <c r="BY3">
+        <v>1.801410583494858</v>
+      </c>
+      <c r="BZ3">
+        <v>0.9794230154378872</v>
       </c>
       <c r="CB3">
-        <v>1.167624807682274</v>
+        <v>1.882993856736842</v>
+      </c>
+      <c r="CC3">
+        <v>1.320976031128108</v>
       </c>
       <c r="CD3">
-        <v>1.117943281882436</v>
+        <v>3.842741573885238</v>
       </c>
       <c r="CE3">
-        <v>1.765550601292616</v>
+        <v>1.212551876399489</v>
       </c>
       <c r="CF3">
-        <v>1.271941278510281</v>
+        <v>1.565422015384978</v>
+      </c>
+      <c r="CG3">
+        <v>1.524601847923283</v>
       </c>
       <c r="CH3">
-        <v>2.417145212248398</v>
+        <v>1.101637596190847</v>
+      </c>
+      <c r="CI3">
+        <v>1.091101899672023</v>
       </c>
       <c r="CK3">
-        <v>2.00305843022842</v>
+        <v>1.19291367147064</v>
+      </c>
+      <c r="CL3">
+        <v>1.380705195397119</v>
       </c>
       <c r="CM3">
-        <v>1.058168535079311</v>
+        <v>1.318107271838992</v>
       </c>
       <c r="CN3">
-        <v>1.12529437304925</v>
+        <v>0.7760511574426976</v>
+      </c>
+      <c r="CO3">
+        <v>0.9829817493586559</v>
       </c>
       <c r="CP3">
-        <v>0.9286749641795902</v>
+        <v>0.9139550959656906</v>
+      </c>
+      <c r="CQ3">
+        <v>0.7966048307396153</v>
+      </c>
+      <c r="CR3">
+        <v>1.513488600679906</v>
       </c>
       <c r="CS3">
-        <v>1.449209101300449</v>
+        <v>1.402988695054527</v>
+      </c>
+      <c r="CT3">
+        <v>1.209582338344517</v>
+      </c>
+      <c r="CU3">
+        <v>2.750630271468781</v>
+      </c>
+      <c r="CV3">
+        <v>1.053393659450284</v>
+      </c>
+      <c r="CW3">
+        <v>0.9924724548971781</v>
       </c>
     </row>
     <row r="4" spans="1:101">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.140603901097195</v>
+      </c>
       <c r="C4">
+        <v>1.405794237624804</v>
+      </c>
+      <c r="D4">
+        <v>1.5007252966408</v>
+      </c>
+      <c r="E4">
+        <v>1.116604143486579</v>
+      </c>
+      <c r="H4">
+        <v>1.536891071426675</v>
+      </c>
+      <c r="I4">
+        <v>0.9703002379363393</v>
+      </c>
+      <c r="J4">
         <v>0.7140428268109732</v>
       </c>
-      <c r="D4">
-        <v>1.210963559250671</v>
-      </c>
-      <c r="E4">
-        <v>1.702294273337156</v>
-      </c>
-      <c r="F4">
+      <c r="K4">
         <v>1.633458733861691</v>
       </c>
-      <c r="H4">
+      <c r="L4">
+        <v>2.383845638772181</v>
+      </c>
+      <c r="M4">
+        <v>1.59718752361239</v>
+      </c>
+      <c r="N4">
         <v>1.055177859107458</v>
       </c>
-      <c r="I4">
+      <c r="O4">
         <v>1.03945301686351</v>
       </c>
-      <c r="L4">
-        <v>1.218236483433991</v>
-      </c>
-      <c r="N4">
-        <v>1.011594226746091</v>
+      <c r="P4">
+        <v>2.104986473400839</v>
       </c>
       <c r="Q4">
-        <v>1.427926666024161</v>
-      </c>
-      <c r="R4">
-        <v>1.575846868642567</v>
-      </c>
-      <c r="S4">
-        <v>1.171579590942846</v>
+        <v>1.014145249286798</v>
       </c>
       <c r="T4">
-        <v>1.665623382761843</v>
+        <v>0.9384457375234552</v>
+      </c>
+      <c r="U4">
+        <v>0.9035083861124711</v>
       </c>
       <c r="V4">
-        <v>1.529714634917865</v>
+        <v>1.202460032720575</v>
       </c>
       <c r="W4">
-        <v>1.143307355917509</v>
-      </c>
-      <c r="X4">
-        <v>1.536891071426675</v>
-      </c>
-      <c r="Y4">
-        <v>1.464470342303372</v>
+        <v>1.048583266327476</v>
+      </c>
+      <c r="Z4">
+        <v>1.431351452541705</v>
+      </c>
+      <c r="AA4">
+        <v>0.7393125267073593</v>
       </c>
       <c r="AC4">
-        <v>1.109802161246118</v>
-      </c>
-      <c r="AE4">
-        <v>0.973385844720375</v>
+        <v>0.9307820058431404</v>
+      </c>
+      <c r="AD4">
+        <v>1.062272106842761</v>
       </c>
       <c r="AF4">
-        <v>1.284049840680116</v>
-      </c>
-      <c r="AH4">
-        <v>1.039531142823217</v>
+        <v>1.032977029892109</v>
+      </c>
+      <c r="AG4">
+        <v>0.5969248734108157</v>
       </c>
       <c r="AI4">
-        <v>1.887839346386667</v>
+        <v>1.82820038446327</v>
       </c>
       <c r="AJ4">
-        <v>1.013708153133032</v>
+        <v>1.606974357186894</v>
+      </c>
+      <c r="AK4">
+        <v>1.170991316826245</v>
       </c>
       <c r="AL4">
-        <v>1.62580087964944</v>
+        <v>1.052749960247069</v>
+      </c>
+      <c r="AM4">
+        <v>1.694388642789383</v>
+      </c>
+      <c r="AN4">
+        <v>0.8624411918815029</v>
       </c>
       <c r="AO4">
-        <v>1.574166193958815</v>
+        <v>1.065153357510448</v>
       </c>
       <c r="AP4">
-        <v>1.442597227687128</v>
+        <v>1.176561437720854</v>
       </c>
       <c r="AQ4">
-        <v>1.130756888194879</v>
+        <v>1.610656492495264</v>
       </c>
       <c r="AR4">
-        <v>0.9115135915258491</v>
-      </c>
-      <c r="AS4">
-        <v>1.035703107917602</v>
+        <v>1.35458411045146</v>
       </c>
       <c r="AT4">
-        <v>0.556684546597044</v>
+        <v>1.028316478401057</v>
+      </c>
+      <c r="AU4">
+        <v>2.589345168815042</v>
       </c>
       <c r="AV4">
-        <v>1.308462913229743</v>
+        <v>3.02431598100523</v>
       </c>
       <c r="AW4">
-        <v>0.9988422446526989</v>
+        <v>0.9851792912956321</v>
       </c>
       <c r="AX4">
-        <v>1.486001196385753</v>
+        <v>2.735189346763739</v>
+      </c>
+      <c r="AY4">
+        <v>0.8528053941384202</v>
       </c>
       <c r="AZ4">
-        <v>0.862931857214882</v>
+        <v>1.182776338503966</v>
       </c>
       <c r="BA4">
-        <v>0.8512763722974198</v>
+        <v>0.424307802102959</v>
       </c>
       <c r="BB4">
-        <v>1.07145937786981</v>
+        <v>1.830149361595547</v>
       </c>
       <c r="BC4">
-        <v>1.032571957316174</v>
+        <v>0.8214883826237335</v>
       </c>
       <c r="BD4">
-        <v>0.9651539731676886</v>
+        <v>2.143419353296872</v>
       </c>
       <c r="BE4">
-        <v>1.055536290559719</v>
+        <v>0.9208761642145399</v>
       </c>
       <c r="BF4">
-        <v>0.989021849347773</v>
-      </c>
-      <c r="BG4">
-        <v>1.306746791318096</v>
+        <v>1.51909877112268</v>
       </c>
       <c r="BH4">
-        <v>0.9510938949149672</v>
+        <v>1.107399274651263</v>
       </c>
       <c r="BI4">
-        <v>1.535871261979247</v>
+        <v>0.8684978809981656</v>
       </c>
       <c r="BJ4">
-        <v>1.031981674266078</v>
+        <v>1.41154443831195</v>
+      </c>
+      <c r="BK4">
+        <v>1.214367454216468</v>
       </c>
       <c r="BL4">
-        <v>1.086710691971663</v>
+        <v>2.221563214871065</v>
       </c>
       <c r="BM4">
-        <v>1.620965281780785</v>
+        <v>0.859262246419781</v>
       </c>
       <c r="BN4">
-        <v>1.47519551850022</v>
+        <v>1.125271469714828</v>
       </c>
       <c r="BO4">
-        <v>1.141908413802861</v>
+        <v>1.121488463869157</v>
+      </c>
+      <c r="BP4">
+        <v>0.9827591829159633</v>
+      </c>
+      <c r="BQ4">
+        <v>0.7751508151285538</v>
       </c>
       <c r="BR4">
-        <v>2.125438149060418</v>
+        <v>1.111511841817975</v>
       </c>
       <c r="BS4">
-        <v>3.289224849734432</v>
+        <v>3.066121957095032</v>
+      </c>
+      <c r="BT4">
+        <v>1.182221222889871</v>
       </c>
       <c r="BU4">
-        <v>2.684136894906728</v>
+        <v>0.694024416914975</v>
+      </c>
+      <c r="BV4">
+        <v>1.232069147748512</v>
+      </c>
+      <c r="BW4">
+        <v>0.994099220560041</v>
       </c>
       <c r="BX4">
-        <v>0.7964394613495009</v>
+        <v>2.193208804843839</v>
       </c>
       <c r="BY4">
-        <v>0.6807282579574998</v>
-      </c>
-      <c r="CA4">
-        <v>1.951640008179956</v>
+        <v>1.655105498951047</v>
+      </c>
+      <c r="BZ4">
+        <v>0.8211256881665076</v>
+      </c>
+      <c r="CB4">
+        <v>1.831202369229539</v>
+      </c>
+      <c r="CC4">
+        <v>1.287862242517863</v>
+      </c>
+      <c r="CD4">
+        <v>3.740497316933061</v>
       </c>
       <c r="CE4">
-        <v>1.507616917881663</v>
+        <v>1.106171336597893</v>
       </c>
       <c r="CF4">
-        <v>1.27262177389729</v>
+        <v>1.427221373689237</v>
+      </c>
+      <c r="CG4">
+        <v>1.52771263519131</v>
       </c>
       <c r="CH4">
-        <v>2.45605531361974</v>
+        <v>0.9925491557042982</v>
       </c>
       <c r="CI4">
-        <v>0.995188564477072</v>
+        <v>1.083156337408922</v>
       </c>
       <c r="CK4">
-        <v>1.956971095919705</v>
+        <v>1.175173234898478</v>
       </c>
       <c r="CL4">
-        <v>0.6990588819115778</v>
+        <v>1.259488044650488</v>
       </c>
       <c r="CM4">
-        <v>1.029503370185562</v>
+        <v>1.249622589134101</v>
       </c>
       <c r="CN4">
-        <v>1.016214972397153</v>
+        <v>0.6795771988561425</v>
+      </c>
+      <c r="CO4">
+        <v>0.9158171746119218</v>
       </c>
       <c r="CP4">
-        <v>0.7827920548216047</v>
+        <v>0.9211328801699863</v>
+      </c>
+      <c r="CQ4">
+        <v>0.6837469716983983</v>
+      </c>
+      <c r="CR4">
+        <v>1.353869665028089</v>
       </c>
       <c r="CS4">
-        <v>1.278450028762322</v>
+        <v>1.304861962151884</v>
+      </c>
+      <c r="CT4">
+        <v>1.123243657047199</v>
       </c>
       <c r="CU4">
-        <v>1.127564389191674</v>
+        <v>2.822803498366929</v>
+      </c>
+      <c r="CV4">
+        <v>0.9935037200289055</v>
+      </c>
+      <c r="CW4">
+        <v>0.7252061467104235</v>
       </c>
     </row>
     <row r="5" spans="1:101">
@@ -1396,193 +1510,262 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>1.226221482091901</v>
+      </c>
+      <c r="C5">
+        <v>1.441569777256297</v>
+      </c>
+      <c r="D5">
+        <v>1.392543861701063</v>
+      </c>
+      <c r="E5">
         <v>1.157032506828946</v>
       </c>
-      <c r="C5">
+      <c r="H5">
+        <v>1.584536801779523</v>
+      </c>
+      <c r="I5">
+        <v>1.090086338240058</v>
+      </c>
+      <c r="J5">
         <v>0.9111264908958394</v>
       </c>
-      <c r="D5">
-        <v>1.23014932086907</v>
-      </c>
-      <c r="F5">
+      <c r="K5">
         <v>1.726859895502197</v>
       </c>
-      <c r="G5">
-        <v>1.196322614656418</v>
-      </c>
-      <c r="H5">
+      <c r="L5">
+        <v>2.536272252162018</v>
+      </c>
+      <c r="M5">
+        <v>1.631705995751281</v>
+      </c>
+      <c r="N5">
         <v>1.066336078805712</v>
       </c>
-      <c r="I5">
+      <c r="O5">
         <v>1.113450593657154</v>
       </c>
-      <c r="N5">
-        <v>1.002307943962807</v>
-      </c>
-      <c r="O5">
+      <c r="P5">
+        <v>2.221391930049362</v>
+      </c>
+      <c r="Q5">
+        <v>1.006056108322126</v>
+      </c>
+      <c r="R5">
         <v>1.137930165085503</v>
       </c>
-      <c r="S5">
-        <v>1.222819664843415</v>
-      </c>
-      <c r="T5">
-        <v>1.606331391613165</v>
+      <c r="U5">
+        <v>0.7581960177102736</v>
       </c>
       <c r="V5">
-        <v>1.401978094008078</v>
+        <v>1.239935606669813</v>
       </c>
       <c r="W5">
-        <v>1.213360729734029</v>
-      </c>
-      <c r="X5">
-        <v>1.584536801779523</v>
-      </c>
-      <c r="Y5">
-        <v>1.565791721755329</v>
+        <v>1.085894307180334</v>
       </c>
       <c r="Z5">
-        <v>1.090086338240058</v>
-      </c>
-      <c r="AB5">
-        <v>1.481456803666138</v>
+        <v>1.543857746732616</v>
+      </c>
+      <c r="AA5">
+        <v>0.6543452061848827</v>
       </c>
       <c r="AC5">
-        <v>1.095425814553297</v>
-      </c>
-      <c r="AD5">
-        <v>1.384618681019864</v>
-      </c>
-      <c r="AE5">
-        <v>0.9914842966410983</v>
-      </c>
-      <c r="AH5">
-        <v>1.065094652366137</v>
+        <v>1.070980552316514</v>
+      </c>
+      <c r="AF5">
+        <v>1.054731724115118</v>
+      </c>
+      <c r="AG5">
+        <v>0.8171572703505986</v>
       </c>
       <c r="AI5">
-        <v>1.49570764999773</v>
+        <v>1.492924459320102</v>
       </c>
       <c r="AJ5">
-        <v>1.030696374156184</v>
+        <v>1.444538320178161</v>
+      </c>
+      <c r="AK5">
+        <v>1.042973661808602</v>
       </c>
       <c r="AL5">
-        <v>1.299256325229588</v>
-      </c>
-      <c r="AO5">
-        <v>1.448441936096249</v>
+        <v>1.091915343036591</v>
+      </c>
+      <c r="AM5">
+        <v>1.343975333064769</v>
+      </c>
+      <c r="AN5">
+        <v>0.9025428542151441</v>
       </c>
       <c r="AP5">
-        <v>1.461070425393725</v>
+        <v>1.248353813492711</v>
       </c>
       <c r="AQ5">
-        <v>1.170886787337528</v>
+        <v>1.677898130908133</v>
       </c>
       <c r="AR5">
-        <v>0.90453000990553</v>
+        <v>1.333221288843726</v>
       </c>
       <c r="AT5">
-        <v>0.3219914826797872</v>
+        <v>1.029522552698089</v>
+      </c>
+      <c r="AU5">
+        <v>2.804372331519621</v>
       </c>
       <c r="AV5">
-        <v>1.358457810973355</v>
+        <v>2.174221321878643</v>
       </c>
       <c r="AW5">
-        <v>1.02653533118508</v>
+        <v>0.9524381476384932</v>
       </c>
       <c r="AX5">
-        <v>1.271284135219244</v>
+        <v>2.544366058445505</v>
       </c>
       <c r="AY5">
-        <v>1.659401441265572</v>
+        <v>0.828277042230439</v>
       </c>
       <c r="AZ5">
-        <v>0.9687089605466624</v>
+        <v>1.438729472790055</v>
       </c>
       <c r="BA5">
-        <v>0.872710844319365</v>
+        <v>0.3982530399031126</v>
       </c>
       <c r="BB5">
-        <v>1.11340157990903</v>
+        <v>1.921403630253607</v>
       </c>
       <c r="BC5">
-        <v>1.109414948944416</v>
+        <v>0.8947752452292386</v>
       </c>
       <c r="BD5">
-        <v>1.120803981098835</v>
+        <v>1.889005269663828</v>
       </c>
       <c r="BE5">
-        <v>1.108019117683159</v>
+        <v>1.000329378526746</v>
       </c>
       <c r="BF5">
-        <v>1.087663518330127</v>
+        <v>1.680319754861394</v>
+      </c>
+      <c r="BG5">
+        <v>1.936166020658275</v>
       </c>
       <c r="BH5">
-        <v>0.9991186976644784</v>
+        <v>1.275411280030529</v>
       </c>
       <c r="BI5">
-        <v>1.645652498076354</v>
+        <v>0.9424243461049018</v>
       </c>
       <c r="BJ5">
-        <v>1.128949246727874</v>
+        <v>1.663750115496403</v>
+      </c>
+      <c r="BK5">
+        <v>1.314913503141756</v>
       </c>
       <c r="BL5">
-        <v>0.983730191695476</v>
+        <v>1.861973449850451</v>
+      </c>
+      <c r="BM5">
+        <v>0.9438160479720142</v>
+      </c>
+      <c r="BN5">
+        <v>1.182389172022684</v>
+      </c>
+      <c r="BO5">
+        <v>1.273550602787526</v>
       </c>
       <c r="BP5">
-        <v>1.003149349617971</v>
+        <v>1.207423471385425</v>
+      </c>
+      <c r="BQ5">
+        <v>0.8197869522074791</v>
       </c>
       <c r="BR5">
-        <v>2.391098967473972</v>
+        <v>1.083185291495312</v>
       </c>
       <c r="BS5">
-        <v>3.395132788665333</v>
+        <v>3.14736992771829</v>
+      </c>
+      <c r="BT5">
+        <v>1.064502938999841</v>
       </c>
       <c r="BU5">
-        <v>3.197389770575261</v>
+        <v>0.7719365415082006</v>
       </c>
       <c r="BV5">
-        <v>1.828070326343944</v>
+        <v>1.334620454579252</v>
+      </c>
+      <c r="BW5">
+        <v>1.081570976050958</v>
       </c>
       <c r="BX5">
-        <v>0.8274923066460622</v>
+        <v>2.404614650135268</v>
       </c>
       <c r="BY5">
-        <v>0.8527426770696167</v>
-      </c>
-      <c r="CA5">
-        <v>1.837162733071332</v>
+        <v>1.94657198886857</v>
+      </c>
+      <c r="BZ5">
+        <v>1.035006374287515</v>
+      </c>
+      <c r="CB5">
+        <v>2.17411781165583</v>
       </c>
       <c r="CC5">
-        <v>1.300298846338923</v>
+        <v>1.65249761287488</v>
       </c>
       <c r="CD5">
-        <v>1.176213985460319</v>
+        <v>4.960050943665579</v>
       </c>
       <c r="CE5">
-        <v>2.559456691233146</v>
+        <v>1.252866577273607</v>
+      </c>
+      <c r="CF5">
+        <v>1.716864482774525</v>
+      </c>
+      <c r="CG5">
+        <v>1.668254277162563</v>
       </c>
       <c r="CH5">
-        <v>2.51231296233642</v>
+        <v>1.141794510051348</v>
+      </c>
+      <c r="CI5">
+        <v>1.431248820720072</v>
       </c>
       <c r="CK5">
-        <v>2.581830156463484</v>
+        <v>1.180974199339226</v>
+      </c>
+      <c r="CL5">
+        <v>1.519530464456156</v>
       </c>
       <c r="CM5">
-        <v>1.075539260604009</v>
+        <v>1.582560226187932</v>
       </c>
       <c r="CN5">
-        <v>1.171957352831471</v>
+        <v>0.8568893529392024</v>
+      </c>
+      <c r="CO5">
+        <v>1.008677374750028</v>
       </c>
       <c r="CP5">
-        <v>0.9807898326032254</v>
+        <v>1.009264364802412</v>
+      </c>
+      <c r="CQ5">
+        <v>0.7183250623106348</v>
+      </c>
+      <c r="CR5">
+        <v>1.557157522243515</v>
       </c>
       <c r="CS5">
-        <v>1.560292125561847</v>
+        <v>1.653462921623898</v>
+      </c>
+      <c r="CT5">
+        <v>1.237758725650577</v>
       </c>
       <c r="CU5">
-        <v>1.244025737291514</v>
+        <v>2.920090386546983</v>
+      </c>
+      <c r="CV5">
+        <v>1.07259111987392</v>
       </c>
       <c r="CW5">
-        <v>1.269805229131911</v>
+        <v>0.9347186496024696</v>
       </c>
     </row>
     <row r="6" spans="1:101">
@@ -1590,408 +1773,552 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>1.258734541931453</v>
+      </c>
+      <c r="D6">
+        <v>1.023602432801603</v>
+      </c>
+      <c r="E6">
         <v>1.160034975323428</v>
       </c>
-      <c r="C6">
+      <c r="F6">
+        <v>1.997319701268786</v>
+      </c>
+      <c r="H6">
+        <v>1.587142311899496</v>
+      </c>
+      <c r="I6">
+        <v>1.093316056720449</v>
+      </c>
+      <c r="J6">
         <v>0.643359387797609</v>
       </c>
-      <c r="D6">
-        <v>0.9526743501660062</v>
-      </c>
-      <c r="F6">
+      <c r="K6">
         <v>1.671466884282488</v>
       </c>
-      <c r="G6">
-        <v>1.181311507797393</v>
-      </c>
-      <c r="H6">
+      <c r="L6">
+        <v>2.507514146050627</v>
+      </c>
+      <c r="M6">
+        <v>1.617567293148351</v>
+      </c>
+      <c r="N6">
         <v>0.9329754125331761</v>
       </c>
-      <c r="I6">
+      <c r="O6">
         <v>1.128934511907643</v>
       </c>
-      <c r="J6">
-        <v>1.924501193676533</v>
-      </c>
-      <c r="M6">
-        <v>1.997319701268786</v>
-      </c>
-      <c r="N6">
-        <v>0.7553576176225458</v>
+      <c r="P6">
+        <v>1.933681892103439</v>
       </c>
       <c r="Q6">
-        <v>1.478221902162672</v>
-      </c>
-      <c r="S6">
-        <v>1.120114581100798</v>
-      </c>
-      <c r="T6">
-        <v>1.296354372640006</v>
+        <v>0.7578661127118945</v>
+      </c>
+      <c r="V6">
+        <v>1.182253278968183</v>
       </c>
       <c r="W6">
-        <v>1.232180926745132</v>
-      </c>
-      <c r="X6">
-        <v>1.587142311899496</v>
+        <v>0.8653685947701714</v>
       </c>
       <c r="Y6">
-        <v>1.456007137711895</v>
+        <v>1.529355517311837</v>
+      </c>
+      <c r="Z6">
+        <v>1.324438139052821</v>
       </c>
       <c r="AA6">
-        <v>1.036674067605513</v>
-      </c>
-      <c r="AB6">
-        <v>1.445892268451813</v>
+        <v>0.5823229385071013</v>
       </c>
       <c r="AC6">
-        <v>1.058823404250049</v>
+        <v>0.9298125990601064</v>
       </c>
       <c r="AD6">
-        <v>1.29568750261989</v>
+        <v>1.040425142530538</v>
       </c>
       <c r="AE6">
-        <v>0.9205313996047256</v>
+        <v>1.169476814585872</v>
+      </c>
+      <c r="AF6">
+        <v>0.9939493919284953</v>
       </c>
       <c r="AG6">
-        <v>1.025756030043181</v>
+        <v>0.709812187790962</v>
       </c>
       <c r="AH6">
-        <v>0.976098641470315</v>
+        <v>1.066198312304179</v>
+      </c>
+      <c r="AI6">
+        <v>1.50338373354777</v>
       </c>
       <c r="AJ6">
-        <v>0.947037546389359</v>
+        <v>1.461297922953671</v>
       </c>
       <c r="AK6">
-        <v>1.376877273503049</v>
+        <v>0.9861172471344672</v>
+      </c>
+      <c r="AL6">
+        <v>1.035191593868258</v>
       </c>
       <c r="AM6">
-        <v>1.218866430826993</v>
+        <v>1.402758999479738</v>
       </c>
       <c r="AN6">
-        <v>1.005073720110825</v>
+        <v>0.7668877547446624</v>
       </c>
       <c r="AO6">
-        <v>1.431716530714586</v>
+        <v>1.015906530000842</v>
       </c>
       <c r="AP6">
-        <v>1.407904370500789</v>
+        <v>1.199157391108078</v>
       </c>
       <c r="AQ6">
-        <v>1.101855189454442</v>
+        <v>1.485758761659772</v>
       </c>
       <c r="AR6">
-        <v>0.6876626176884483</v>
+        <v>1.28206357864805</v>
+      </c>
+      <c r="AS6">
+        <v>1.30575968624373</v>
+      </c>
+      <c r="AT6">
+        <v>0.9158837496691029</v>
+      </c>
+      <c r="AU6">
+        <v>2.621950345316185</v>
       </c>
       <c r="AV6">
-        <v>1.279460771926453</v>
+        <v>2.050498199958512</v>
       </c>
       <c r="AW6">
-        <v>0.8936347838209817</v>
+        <v>0.8350633417364871</v>
       </c>
       <c r="AX6">
-        <v>1.286310856744779</v>
+        <v>2.447744628013377</v>
+      </c>
+      <c r="AY6">
+        <v>0.7883756077246081</v>
+      </c>
+      <c r="AZ6">
+        <v>1.330498156335086</v>
       </c>
       <c r="BA6">
-        <v>0.9848552908330953</v>
+        <v>0.6376410654761799</v>
       </c>
       <c r="BB6">
-        <v>1.021093091928092</v>
+        <v>1.756820726598538</v>
+      </c>
+      <c r="BC6">
+        <v>0.7781155661820752</v>
       </c>
       <c r="BD6">
-        <v>1.059185503658969</v>
+        <v>2.440968388770941</v>
       </c>
       <c r="BE6">
-        <v>1.053936529427555</v>
+        <v>1.085539752992777</v>
       </c>
       <c r="BF6">
-        <v>1.075499835646455</v>
+        <v>1.555837389656292</v>
       </c>
       <c r="BG6">
-        <v>1.315761795634093</v>
+        <v>1.617965824975625</v>
+      </c>
+      <c r="BH6">
+        <v>1.249003068935251</v>
       </c>
       <c r="BI6">
-        <v>1.546472105305229</v>
+        <v>0.8702520639419378</v>
       </c>
       <c r="BJ6">
-        <v>1.02224148024257</v>
+        <v>2.366364862194147</v>
+      </c>
+      <c r="BK6">
+        <v>1.174899267204979</v>
       </c>
       <c r="BL6">
-        <v>0.9690030326610958</v>
+        <v>1.945993949951328</v>
+      </c>
+      <c r="BM6">
+        <v>0.8740475461104018</v>
+      </c>
+      <c r="BN6">
+        <v>1.054378970826285</v>
       </c>
       <c r="BO6">
-        <v>1.15720585874444</v>
+        <v>1.128620722512681</v>
+      </c>
+      <c r="BP6">
+        <v>1.094189591153123</v>
+      </c>
+      <c r="BQ6">
+        <v>0.7375762964271747</v>
       </c>
       <c r="BR6">
-        <v>2.205292443437906</v>
+        <v>1.114085990785515</v>
       </c>
       <c r="BS6">
-        <v>3.40599583002469</v>
+        <v>4.540612743690636</v>
+      </c>
+      <c r="BT6">
+        <v>1.039780680210744</v>
       </c>
       <c r="BU6">
-        <v>3.57572167911208</v>
+        <v>0.9191141434540244</v>
       </c>
       <c r="BV6">
-        <v>1.915418240134191</v>
+        <v>1.243259052799615</v>
+      </c>
+      <c r="BW6">
+        <v>1.003215286373809</v>
       </c>
       <c r="BX6">
-        <v>0.9393072235228647</v>
+        <v>2.529863177207184</v>
       </c>
       <c r="BY6">
-        <v>0.6623374603709101</v>
+        <v>1.360929329715088</v>
+      </c>
+      <c r="BZ6">
+        <v>1.058857991304768</v>
       </c>
       <c r="CA6">
-        <v>1.846881066506351</v>
+        <v>0.9986775818759076</v>
+      </c>
+      <c r="CB6">
+        <v>2.130674744154919</v>
       </c>
       <c r="CC6">
-        <v>1.186619397296601</v>
+        <v>1.378515264088381</v>
       </c>
       <c r="CD6">
-        <v>1.039716107694692</v>
+        <v>5.306478108074515</v>
       </c>
       <c r="CE6">
-        <v>1.132703136976835</v>
+        <v>1.171255103578199</v>
       </c>
       <c r="CF6">
-        <v>1.394855300618844</v>
+        <v>1.357242410346066</v>
+      </c>
+      <c r="CG6">
+        <v>1.555352767407136</v>
       </c>
       <c r="CH6">
-        <v>2.061460931174369</v>
+        <v>1.078210626846733</v>
       </c>
       <c r="CI6">
-        <v>0.9979126845537052</v>
+        <v>1.457368513632073</v>
       </c>
       <c r="CJ6">
-        <v>1.092719105510815</v>
+        <v>1.140064828660399</v>
       </c>
       <c r="CK6">
-        <v>2.597490673602089</v>
+        <v>1.15956228411528</v>
       </c>
       <c r="CL6">
-        <v>0.7467177512833684</v>
+        <v>1.439101207902077</v>
       </c>
       <c r="CM6">
-        <v>1.05583365279319</v>
+        <v>1.490329608396142</v>
       </c>
       <c r="CN6">
-        <v>1.099373527457838</v>
+        <v>0.780455002004749</v>
+      </c>
+      <c r="CO6">
+        <v>0.9510894963286446</v>
       </c>
       <c r="CP6">
-        <v>0.8853546638078722</v>
+        <v>0.992323034973983</v>
       </c>
       <c r="CQ6">
-        <v>5.324224588953927</v>
+        <v>0.7130968664972567</v>
+      </c>
+      <c r="CR6">
+        <v>1.318502984221327</v>
       </c>
       <c r="CS6">
-        <v>1.287466417329945</v>
+        <v>1.403697997832819</v>
       </c>
       <c r="CT6">
-        <v>0.8385623283579573</v>
+        <v>1.107132035455692</v>
+      </c>
+      <c r="CU6">
+        <v>2.026429303768615</v>
+      </c>
+      <c r="CV6">
+        <v>0.9738021753450607</v>
+      </c>
+      <c r="CW6">
+        <v>0.7417781189431109</v>
       </c>
     </row>
     <row r="7" spans="1:101">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="C7">
+        <v>1.519247080946315</v>
+      </c>
+      <c r="D7">
+        <v>1.514333986484663</v>
+      </c>
+      <c r="E7">
         <v>1.224757163123837</v>
       </c>
-      <c r="C7">
+      <c r="F7">
+        <v>2.091199569748967</v>
+      </c>
+      <c r="H7">
+        <v>1.537391589580839</v>
+      </c>
+      <c r="J7">
         <v>1.016174503062136</v>
       </c>
-      <c r="D7">
-        <v>1.308290356000324</v>
-      </c>
-      <c r="F7">
+      <c r="K7">
         <v>1.675045794063868</v>
       </c>
-      <c r="G7">
-        <v>1.148490802053092</v>
-      </c>
-      <c r="H7">
+      <c r="L7">
+        <v>2.390825050954146</v>
+      </c>
+      <c r="M7">
+        <v>1.666199679126748</v>
+      </c>
+      <c r="N7">
         <v>1.165732581023639</v>
       </c>
-      <c r="I7">
+      <c r="O7">
         <v>1.047397719937088</v>
       </c>
-      <c r="L7">
-        <v>1.210688508273547</v>
-      </c>
-      <c r="N7">
-        <v>1.164149102231106</v>
-      </c>
-      <c r="R7">
-        <v>1.713443988954023</v>
+      <c r="P7">
+        <v>2.129255943636026</v>
+      </c>
+      <c r="Q7">
+        <v>1.166760117934521</v>
       </c>
       <c r="T7">
-        <v>1.623505766221107</v>
+        <v>0.9401847404949375</v>
+      </c>
+      <c r="U7">
+        <v>0.9204318488488932</v>
       </c>
       <c r="V7">
-        <v>1.552916903501306</v>
-      </c>
-      <c r="X7">
-        <v>1.537391589580839</v>
+        <v>1.185568857949073</v>
+      </c>
+      <c r="W7">
+        <v>1.195606642344401</v>
       </c>
       <c r="Y7">
-        <v>1.61970374275581</v>
+        <v>1.523254875675165</v>
       </c>
       <c r="Z7">
-        <v>1.017690180800338</v>
+        <v>1.556780322803665</v>
       </c>
       <c r="AA7">
-        <v>0.9208572375274678</v>
+        <v>1.102947694668914</v>
       </c>
       <c r="AC7">
-        <v>1.150274948099059</v>
-      </c>
-      <c r="AD7">
-        <v>1.241096715488608</v>
+        <v>1.045694436406593</v>
       </c>
       <c r="AE7">
-        <v>0.8577182487683257</v>
+        <v>1.082240105179566</v>
+      </c>
+      <c r="AF7">
+        <v>0.9944446047729552</v>
+      </c>
+      <c r="AG7">
+        <v>0.8048624323590811</v>
       </c>
       <c r="AH7">
-        <v>1.030338471575662</v>
+        <v>0.9439862937678</v>
       </c>
       <c r="AI7">
-        <v>1.575097667932416</v>
+        <v>1.64354938640025</v>
       </c>
       <c r="AJ7">
-        <v>0.9827395105582282</v>
+        <v>1.322880832646347</v>
       </c>
       <c r="AK7">
-        <v>1.217455244686417</v>
+        <v>1.106628575508836</v>
       </c>
       <c r="AL7">
-        <v>2.048720106114645</v>
+        <v>1.023577718438076</v>
       </c>
       <c r="AM7">
-        <v>1.135708334783147</v>
+        <v>1.05528226133257</v>
       </c>
       <c r="AO7">
-        <v>1.341779817504587</v>
+        <v>1.047995188569648</v>
       </c>
       <c r="AP7">
-        <v>1.43327716731085</v>
+        <v>1.188640480329642</v>
       </c>
       <c r="AQ7">
-        <v>1.090529676718792</v>
+        <v>1.550129855872786</v>
       </c>
       <c r="AR7">
-        <v>0.9229634085406782</v>
+        <v>1.30351786284645</v>
+      </c>
+      <c r="AS7">
+        <v>1.207702299462906</v>
       </c>
       <c r="AT7">
-        <v>0.8746065876549455</v>
+        <v>1.092426963366218</v>
+      </c>
+      <c r="AU7">
+        <v>2.853157890020459</v>
       </c>
       <c r="AV7">
-        <v>1.265493362166798</v>
+        <v>2.639837218022473</v>
       </c>
       <c r="AW7">
-        <v>0.9326105298630951</v>
+        <v>0.8929360782758642</v>
       </c>
       <c r="AX7">
-        <v>1.239051826809066</v>
+        <v>2.643499618314007</v>
+      </c>
+      <c r="AY7">
+        <v>0.8026676115725545</v>
       </c>
       <c r="AZ7">
-        <v>0.7947055102089875</v>
+        <v>1.173668039292818</v>
       </c>
       <c r="BA7">
-        <v>0.7577589735674554</v>
+        <v>0.4641646118905791</v>
       </c>
       <c r="BB7">
-        <v>1.060639503480657</v>
+        <v>1.89298198975804</v>
       </c>
       <c r="BC7">
-        <v>1.058307505876236</v>
+        <v>0.8022252711916726</v>
+      </c>
+      <c r="BD7">
+        <v>1.666198562939754</v>
       </c>
       <c r="BE7">
-        <v>1.034975852823053</v>
+        <v>0.9012215638674729</v>
       </c>
       <c r="BF7">
-        <v>0.9452855433900899</v>
+        <v>1.527597434384688</v>
       </c>
       <c r="BG7">
-        <v>1.071173502999147</v>
+        <v>1.920253267578945</v>
+      </c>
+      <c r="BH7">
+        <v>1.054395417900383</v>
       </c>
       <c r="BI7">
-        <v>1.517806846151187</v>
+        <v>0.8507466200632797</v>
       </c>
       <c r="BJ7">
-        <v>1.044589586143853</v>
+        <v>1.443087855395872</v>
+      </c>
+      <c r="BK7">
+        <v>1.111302073790037</v>
       </c>
       <c r="BL7">
-        <v>1.012794958460881</v>
+        <v>1.785437839187907</v>
       </c>
       <c r="BM7">
-        <v>1.559229255172223</v>
+        <v>0.9206012378685775</v>
+      </c>
+      <c r="BN7">
+        <v>1.170487313154043</v>
+      </c>
+      <c r="BO7">
+        <v>1.155801456682206</v>
+      </c>
+      <c r="BP7">
+        <v>1.049628155883133</v>
+      </c>
+      <c r="BQ7">
+        <v>0.8103364221643801</v>
       </c>
       <c r="BR7">
-        <v>2.132859284628154</v>
+        <v>1.020270949164926</v>
       </c>
       <c r="BS7">
-        <v>3.12080247371611</v>
+        <v>2.718484365372117</v>
       </c>
       <c r="BT7">
-        <v>0.7107692544690215</v>
+        <v>1.139863232566443</v>
       </c>
       <c r="BU7">
-        <v>2.694118953863253</v>
+        <v>0.7143345179331061</v>
       </c>
       <c r="BV7">
-        <v>2.005628521259196</v>
+        <v>1.245208431736839</v>
       </c>
       <c r="BW7">
-        <v>1.531658883614195</v>
+        <v>1.050263743559992</v>
       </c>
       <c r="BX7">
-        <v>0.7840307970985759</v>
-      </c>
-      <c r="CA7">
-        <v>1.710534115404417</v>
+        <v>2.270649148664988</v>
+      </c>
+      <c r="BY7">
+        <v>2.054992216228396</v>
+      </c>
+      <c r="BZ7">
+        <v>0.9957888275569743</v>
       </c>
       <c r="CB7">
-        <v>1.06464752156821</v>
+        <v>2.173648777222255</v>
       </c>
       <c r="CC7">
-        <v>1.273789316323887</v>
+        <v>1.219000264676384</v>
       </c>
       <c r="CD7">
-        <v>1.097131046858584</v>
+        <v>4.2474792194336</v>
       </c>
       <c r="CE7">
-        <v>1.826029170040048</v>
+        <v>1.167496414859191</v>
       </c>
       <c r="CF7">
-        <v>1.28483373494926</v>
+        <v>1.542906668089825</v>
       </c>
       <c r="CG7">
-        <v>1.205749793052434</v>
+        <v>1.496901240155477</v>
       </c>
       <c r="CH7">
-        <v>2.910069055953208</v>
-      </c>
-      <c r="CJ7">
-        <v>1.061277888170612</v>
+        <v>1.026146098150566</v>
+      </c>
+      <c r="CI7">
+        <v>1.327755385620194</v>
       </c>
       <c r="CK7">
-        <v>1.990912919255122</v>
+        <v>1.172271507818886</v>
+      </c>
+      <c r="CL7">
+        <v>1.341474154979188</v>
       </c>
       <c r="CM7">
-        <v>1.064501374115912</v>
+        <v>1.500785939769516</v>
       </c>
       <c r="CN7">
-        <v>1.047423661991228</v>
+        <v>0.7951693016928699</v>
+      </c>
+      <c r="CO7">
+        <v>0.9873676017041797</v>
       </c>
       <c r="CP7">
-        <v>0.9660599613959784</v>
+        <v>1.039866229047164</v>
       </c>
       <c r="CQ7">
-        <v>5.140665967393812</v>
+        <v>0.6462520221221962</v>
+      </c>
+      <c r="CR7">
+        <v>1.459493386377831</v>
       </c>
       <c r="CS7">
-        <v>1.388132147713564</v>
+        <v>1.40941563930089</v>
+      </c>
+      <c r="CT7">
+        <v>1.119920051195673</v>
+      </c>
+      <c r="CU7">
+        <v>3.352092587078113</v>
+      </c>
+      <c r="CV7">
+        <v>0.9088810616174465</v>
       </c>
       <c r="CW7">
-        <v>1.186844795271736</v>
+        <v>0.7856284047300339</v>
       </c>
     </row>
   </sheetData>
